--- a/GroupByCorrWOHighLowPtsMap.xlsx
+++ b/GroupByCorrWOHighLowPtsMap.xlsx
@@ -55,16 +55,19 @@
     <t>month</t>
   </si>
   <si>
+    <t>CSB</t>
+  </si>
+  <si>
     <t>Uncategorized</t>
   </si>
   <si>
+    <t>LI</t>
+  </si>
+  <si>
     <t>PrefeSmalled Account</t>
   </si>
   <si>
-    <t>CSB</t>
-  </si>
-  <si>
-    <t>LI</t>
+    <t>V</t>
   </si>
   <si>
     <t>Direct</t>
@@ -73,21 +76,18 @@
     <t>D</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>Client Others</t>
   </si>
   <si>
+    <t>XYZ 22</t>
+  </si>
+  <si>
+    <t>XYZ 11</t>
+  </si>
+  <si>
     <t>XYZ Others</t>
   </si>
   <si>
-    <t>XYZ 22</t>
-  </si>
-  <si>
-    <t>XYZ 11</t>
-  </si>
-  <si>
     <t>POS</t>
   </si>
   <si>
@@ -100,106 +100,106 @@
     <t>Small</t>
   </si>
   <si>
+    <t>2015-M10</t>
+  </si>
+  <si>
     <t>2016-M06</t>
   </si>
   <si>
+    <t>2016-M04</t>
+  </si>
+  <si>
+    <t>2016-M08</t>
+  </si>
+  <si>
+    <t>2016-M09</t>
+  </si>
+  <si>
+    <t>2016-M05</t>
+  </si>
+  <si>
+    <t>2015-M12</t>
+  </si>
+  <si>
+    <t>2015-M11</t>
+  </si>
+  <si>
+    <t>2016-M07</t>
+  </si>
+  <si>
     <t>2016-M10</t>
   </si>
   <si>
-    <t>2016-M07</t>
-  </si>
-  <si>
-    <t>2016-M08</t>
-  </si>
-  <si>
-    <t>2016-M05</t>
-  </si>
-  <si>
-    <t>2015-M12</t>
-  </si>
-  <si>
     <t>2016-M03</t>
   </si>
   <si>
-    <t>2015-M10</t>
-  </si>
-  <si>
-    <t>2016-M04</t>
-  </si>
-  <si>
-    <t>2015-M11</t>
-  </si>
-  <si>
     <t>2016-M01</t>
   </si>
   <si>
-    <t>2016-M09</t>
-  </si>
-  <si>
     <t>2016-M02</t>
   </si>
   <si>
+    <t>-0.709287961778 - 0.538461538462</t>
+  </si>
+  <si>
     <t>-1.3889749903 - 0.625</t>
   </si>
   <si>
+    <t>-1.37499080869 - 0.678571428571</t>
+  </si>
+  <si>
     <t>-0.469693938788 - 0.541666666667</t>
   </si>
   <si>
-    <t>-0.709287961778 - 0.538461538462</t>
-  </si>
-  <si>
-    <t>-1.37499080869 - 0.678571428571</t>
+    <t>-1.00950516534 - 0.678571428571</t>
   </si>
   <si>
     <t>-0.328618778216 - 0.538461538462</t>
   </si>
   <si>
-    <t>-1.00950516534 - 0.678571428571</t>
-  </si>
-  <si>
     <t>-1.23568767232 - 0.5</t>
   </si>
   <si>
+    <t>-1.3889749903 - 0.678571428571</t>
+  </si>
+  <si>
+    <t>-0.722606805761 - 0.625</t>
+  </si>
+  <si>
     <t>-0.45849616161 - 0.541666666667</t>
   </si>
   <si>
-    <t>-1.3889749903 - 0.678571428571</t>
-  </si>
-  <si>
-    <t>-0.722606805761 - 0.625</t>
+    <t>-0.488767914382 - 0.5</t>
   </si>
   <si>
     <t>-1.3889749903 - 0.5</t>
   </si>
   <si>
+    <t>-1.225 - 0.501127291692</t>
+  </si>
+  <si>
+    <t>-0.695725906071 - 0.5</t>
+  </si>
+  <si>
+    <t>-0.319260011457 - 0.5</t>
+  </si>
+  <si>
+    <t>-0.959352780015 - 0.5</t>
+  </si>
+  <si>
+    <t>-0.471988366753 - 0.5</t>
+  </si>
+  <si>
+    <t>-0.722606805761 - 0.461461532967</t>
+  </si>
+  <si>
     <t>-0.372500241838 - 0.461116686344</t>
   </si>
   <si>
-    <t>-0.722606805761 - 0.461461532967</t>
-  </si>
-  <si>
-    <t>-0.695725906071 - 0.5</t>
-  </si>
-  <si>
-    <t>-0.959352780015 - 0.5</t>
-  </si>
-  <si>
     <t>-1.00950516534 - 0.5</t>
   </si>
   <si>
-    <t>-0.488767914382 - 0.5</t>
-  </si>
-  <si>
-    <t>-1.225 - 0.501127291692</t>
-  </si>
-  <si>
-    <t>-0.471988366753 - 0.5</t>
-  </si>
-  <si>
     <t>-0.75 - 0.678571428571</t>
-  </si>
-  <si>
-    <t>-0.319260011457 - 0.5</t>
   </si>
   <si>
     <t>-0.242012213837 - 0.538461538462</t>
@@ -600,19 +600,19 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>0.488935639380052</v>
+        <v>0.409115363513721</v>
       </c>
       <c r="E2">
-        <v>7784</v>
+        <v>6990</v>
       </c>
       <c r="F2">
-        <v>0.19305240212783</v>
+        <v>0.123023834031466</v>
       </c>
       <c r="G2" t="s">
         <v>41</v>
       </c>
       <c r="H2">
-        <v>0.102387943365552</v>
+        <v>0.0971563781180466</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -626,19 +626,19 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>0.404121905644412</v>
+        <v>0.488935639380052</v>
       </c>
       <c r="E3">
-        <v>16768</v>
+        <v>7784</v>
       </c>
       <c r="F3">
-        <v>0.150579339960708</v>
+        <v>0.19305240212783</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
       </c>
       <c r="H3">
-        <v>0.0812388339608767</v>
+        <v>0.102387943365552</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -652,19 +652,19 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>0.409115363513721</v>
+        <v>0.343424993502358</v>
       </c>
       <c r="E4">
-        <v>6990</v>
+        <v>8629</v>
       </c>
       <c r="F4">
-        <v>0.123023834031466</v>
+        <v>0.154777672311735</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4">
-        <v>0.0971563781180466</v>
+        <v>0.0906813329511988</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -678,19 +678,19 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>0.343424993502358</v>
+        <v>0.404121905644412</v>
       </c>
       <c r="E5">
-        <v>8629</v>
+        <v>16768</v>
       </c>
       <c r="F5">
-        <v>0.154777672311735</v>
+        <v>0.150579339960708</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
       </c>
       <c r="H5">
-        <v>0.0906813329511988</v>
+        <v>0.0812388339608767</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -704,19 +704,19 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>0.394309983870247</v>
+        <v>0.433035315347051</v>
       </c>
       <c r="E6">
-        <v>22115</v>
+        <v>13455</v>
       </c>
       <c r="F6">
-        <v>0.139180992388212</v>
+        <v>0.166199102274941</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>0.0969631702197324</v>
+        <v>0.0849058403160642</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -730,19 +730,19 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>0.548154959054545</v>
+        <v>0.394309983870247</v>
       </c>
       <c r="E7">
-        <v>4601</v>
+        <v>22115</v>
       </c>
       <c r="F7">
-        <v>0.197555061314379</v>
+        <v>0.139180992388212</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H7">
-        <v>0.0772631491474629</v>
+        <v>0.0969631702197324</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,19 +756,19 @@
         <v>19</v>
       </c>
       <c r="D8">
-        <v>0.433035315347051</v>
+        <v>0.548154959054545</v>
       </c>
       <c r="E8">
-        <v>13455</v>
+        <v>4601</v>
       </c>
       <c r="F8">
-        <v>0.166199102274941</v>
+        <v>0.197555061314379</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
       <c r="H8">
-        <v>0.0849058403160642</v>
+        <v>0.0772631491474629</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -808,19 +808,19 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>0.183506343665343</v>
+        <v>0.214527682052138</v>
       </c>
       <c r="E10">
-        <v>13401</v>
+        <v>9723</v>
       </c>
       <c r="F10">
-        <v>0.196723595632772</v>
+        <v>0.161828899846308</v>
       </c>
       <c r="G10" t="s">
         <v>48</v>
       </c>
       <c r="H10">
-        <v>0.095672453945505</v>
+        <v>0.0874888352954957</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>0.214527682052138</v>
+        <v>0.299723327897939</v>
       </c>
       <c r="E11">
-        <v>9723</v>
+        <v>11179</v>
       </c>
       <c r="F11">
-        <v>0.161828899846308</v>
+        <v>0.109517801215403</v>
       </c>
       <c r="G11" t="s">
         <v>49</v>
       </c>
       <c r="H11">
-        <v>0.0874888352954957</v>
+        <v>0.0662347486014967</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -860,19 +860,19 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>0.299723327897939</v>
+        <v>0.183506343665343</v>
       </c>
       <c r="E12">
-        <v>11179</v>
+        <v>13401</v>
       </c>
       <c r="F12">
-        <v>0.109517801215403</v>
+        <v>0.196723595632772</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
       </c>
       <c r="H12">
-        <v>0.0662347486014967</v>
+        <v>0.095672453945505</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -895,7 +895,7 @@
         <v>0.17328862920054</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13">
         <v>0.0887266431085366</v>
@@ -921,7 +921,7 @@
         <v>0.146828349595893</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14">
         <v>0.0937793676295708</v>
@@ -947,7 +947,7 @@
         <v>0.188563369352244</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15">
         <v>0.0918584058560178</v>
@@ -973,7 +973,7 @@
         <v>0.139514789849145</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H16">
         <v>0.0894878898897527</v>
@@ -990,19 +990,19 @@
         <v>28</v>
       </c>
       <c r="D17">
-        <v>0.346015909203136</v>
+        <v>0.392304957601835</v>
       </c>
       <c r="E17">
-        <v>3636</v>
+        <v>2667</v>
       </c>
       <c r="F17">
-        <v>0.15766398800539</v>
+        <v>0.143140375303749</v>
       </c>
       <c r="G17" t="s">
         <v>51</v>
       </c>
       <c r="H17">
-        <v>0.102499819285182</v>
+        <v>0.0875761727795614</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1016,19 +1016,19 @@
         <v>29</v>
       </c>
       <c r="D18">
-        <v>0.480384093807129</v>
+        <v>0.346015909203136</v>
       </c>
       <c r="E18">
-        <v>3137</v>
+        <v>3636</v>
       </c>
       <c r="F18">
-        <v>0.164605199438088</v>
+        <v>0.15766398800539</v>
       </c>
       <c r="G18" t="s">
         <v>52</v>
       </c>
       <c r="H18">
-        <v>0.0946535432957233</v>
+        <v>0.102499819285182</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1042,19 +1042,19 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>0.383316975607095</v>
+        <v>0.306508017251523</v>
       </c>
       <c r="E19">
-        <v>2937</v>
+        <v>2976</v>
       </c>
       <c r="F19">
-        <v>0.157844665834113</v>
+        <v>0.155022860947712</v>
       </c>
       <c r="G19" t="s">
         <v>53</v>
       </c>
       <c r="H19">
-        <v>0.0954399864224709</v>
+        <v>0.0937816777533683</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1094,19 +1094,19 @@
         <v>32</v>
       </c>
       <c r="D21">
-        <v>0.397185632715781</v>
+        <v>0.472906549391758</v>
       </c>
       <c r="E21">
-        <v>3050</v>
+        <v>3622</v>
       </c>
       <c r="F21">
-        <v>0.156009372495417</v>
+        <v>0.165703011672696</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H21">
-        <v>0.0932142786351119</v>
+        <v>0.093298183021658</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1120,19 +1120,19 @@
         <v>33</v>
       </c>
       <c r="D22">
-        <v>0.378037251426169</v>
+        <v>0.397185632715781</v>
       </c>
       <c r="E22">
-        <v>3128</v>
+        <v>3050</v>
       </c>
       <c r="F22">
-        <v>0.151483463118277</v>
+        <v>0.156009372495417</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H22">
-        <v>0.090180128826082</v>
+        <v>0.0932142786351119</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1146,19 +1146,19 @@
         <v>34</v>
       </c>
       <c r="D23">
-        <v>0.393537632466102</v>
+        <v>0.378037251426169</v>
       </c>
       <c r="E23">
-        <v>3476</v>
+        <v>3128</v>
       </c>
       <c r="F23">
-        <v>0.153058983225788</v>
+        <v>0.151483463118277</v>
       </c>
       <c r="G23" t="s">
         <v>56</v>
       </c>
       <c r="H23">
-        <v>0.0890288497450025</v>
+        <v>0.090180128826082</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1172,19 +1172,19 @@
         <v>35</v>
       </c>
       <c r="D24">
-        <v>0.392304957601835</v>
+        <v>0.429905570005954</v>
       </c>
       <c r="E24">
-        <v>2667</v>
+        <v>2676</v>
       </c>
       <c r="F24">
-        <v>0.143140375303749</v>
+        <v>0.147425599241166</v>
       </c>
       <c r="G24" t="s">
         <v>57</v>
       </c>
       <c r="H24">
-        <v>0.0875761727795614</v>
+        <v>0.0898997120403945</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1198,19 +1198,19 @@
         <v>36</v>
       </c>
       <c r="D25">
-        <v>0.306508017251523</v>
+        <v>0.383316975607095</v>
       </c>
       <c r="E25">
-        <v>2976</v>
+        <v>2937</v>
       </c>
       <c r="F25">
-        <v>0.155022860947712</v>
+        <v>0.157844665834113</v>
       </c>
       <c r="G25" t="s">
         <v>58</v>
       </c>
       <c r="H25">
-        <v>0.0937816777533683</v>
+        <v>0.0954399864224709</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1224,19 +1224,19 @@
         <v>37</v>
       </c>
       <c r="D26">
-        <v>0.429905570005954</v>
+        <v>0.480384093807129</v>
       </c>
       <c r="E26">
-        <v>2676</v>
+        <v>3137</v>
       </c>
       <c r="F26">
-        <v>0.147425599241166</v>
+        <v>0.164605199438088</v>
       </c>
       <c r="G26" t="s">
         <v>59</v>
       </c>
       <c r="H26">
-        <v>0.0898997120403945</v>
+        <v>0.0946535432957233</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1250,19 +1250,19 @@
         <v>38</v>
       </c>
       <c r="D27">
-        <v>0.396576430429812</v>
+        <v>0.393537632466102</v>
       </c>
       <c r="E27">
-        <v>2811</v>
+        <v>3476</v>
       </c>
       <c r="F27">
-        <v>0.148982812739378</v>
+        <v>0.153058983225788</v>
       </c>
       <c r="G27" t="s">
         <v>60</v>
       </c>
       <c r="H27">
-        <v>0.0892096548035737</v>
+        <v>0.0890288497450025</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1276,19 +1276,19 @@
         <v>39</v>
       </c>
       <c r="D28">
-        <v>0.472906549391758</v>
+        <v>0.396576430429812</v>
       </c>
       <c r="E28">
-        <v>3622</v>
+        <v>2811</v>
       </c>
       <c r="F28">
-        <v>0.165703011672696</v>
+        <v>0.148982812739378</v>
       </c>
       <c r="G28" t="s">
         <v>61</v>
       </c>
       <c r="H28">
-        <v>0.093298183021658</v>
+        <v>0.0892096548035737</v>
       </c>
     </row>
     <row r="29" spans="1:8">
